--- a/data/origin/fuel_NestroStations.xlsx
+++ b/data/origin/fuel_NestroStations.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.511775797810216</v>
+        <v>1.533432335174297</v>
       </c>
       <c r="C2" t="n">
-        <v>1.396069632528323</v>
+        <v>1.587045722081709</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.575979684852388</v>
+        <v>1.547112701389179</v>
       </c>
       <c r="C3" t="n">
-        <v>1.569862210386274</v>
+        <v>1.439219515952371</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.429267955685318</v>
+        <v>1.572824237298417</v>
       </c>
       <c r="C4" t="n">
-        <v>1.436082306394135</v>
+        <v>1.532774559084596</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.482474206495044</v>
+        <v>1.47560993845439</v>
       </c>
       <c r="C5" t="n">
-        <v>1.513628833265065</v>
+        <v>1.543574089884301</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.553385068183033</v>
+        <v>1.499056617288535</v>
       </c>
       <c r="C6" t="n">
-        <v>1.462131207566295</v>
+        <v>1.551580141978046</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.56830963669604</v>
+        <v>1.462684119202653</v>
       </c>
       <c r="C7" t="n">
-        <v>1.464467168535138</v>
+        <v>1.457376595356618</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.480137953875469</v>
+        <v>1.557568647347442</v>
       </c>
       <c r="C8" t="n">
-        <v>1.47065045621749</v>
+        <v>1.479327685698183</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.425780506779307</v>
+        <v>1.501314203217321</v>
       </c>
       <c r="C9" t="n">
-        <v>1.405499885227255</v>
+        <v>1.494612986105217</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.528263725040066</v>
+        <v>1.530128623959886</v>
       </c>
       <c r="C10" t="n">
-        <v>1.515614736373708</v>
+        <v>1.503289098259187</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.483286478644881</v>
+        <v>1.485049646748485</v>
       </c>
       <c r="C11" t="n">
-        <v>1.434546048165637</v>
+        <v>1.499426229097234</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.428504477441544</v>
+        <v>1.466621839396627</v>
       </c>
       <c r="C12" t="n">
-        <v>1.421466712988751</v>
+        <v>1.482567582663892</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.556827032587639</v>
+        <v>1.438930175318385</v>
       </c>
       <c r="C13" t="n">
-        <v>1.504066465281953</v>
+        <v>1.540595853686175</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.474931507109664</v>
+        <v>1.44564344167501</v>
       </c>
       <c r="C14" t="n">
-        <v>1.526536664269377</v>
+        <v>1.495346157404109</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.45169143150088</v>
+        <v>1.355520984588509</v>
       </c>
       <c r="C15" t="n">
-        <v>1.470479791019182</v>
+        <v>1.462631702825495</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.49868815517307</v>
+        <v>1.467188304818341</v>
       </c>
       <c r="C16" t="n">
-        <v>1.460564052220685</v>
+        <v>1.410350215969443</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.376800903156518</v>
+        <v>1.480357515322258</v>
       </c>
       <c r="C17" t="n">
-        <v>1.532761457205965</v>
+        <v>1.470791448500032</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.481513625266824</v>
+        <v>1.530147301944656</v>
       </c>
       <c r="C18" t="n">
-        <v>1.560848446811085</v>
+        <v>1.500310411089754</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.542511827051894</v>
+        <v>1.502030560857825</v>
       </c>
       <c r="C19" t="n">
-        <v>1.464402326409734</v>
+        <v>1.527055654585778</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.541863844263321</v>
+        <v>1.451281913578016</v>
       </c>
       <c r="C20" t="n">
-        <v>1.519182187195097</v>
+        <v>1.463353914379034</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.516341453831411</v>
+        <v>1.458395654389324</v>
       </c>
       <c r="C21" t="n">
-        <v>1.521477398757307</v>
+        <v>1.434626551327986</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.472683015694473</v>
+        <v>1.585700145436161</v>
       </c>
       <c r="C22" t="n">
-        <v>1.600904331612661</v>
+        <v>1.550711190202483</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.539034104958196</v>
+        <v>1.440014230215178</v>
       </c>
       <c r="C23" t="n">
-        <v>1.467966772248914</v>
+        <v>1.432675948578643</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.519694368633327</v>
+        <v>1.521355542323683</v>
       </c>
       <c r="C24" t="n">
-        <v>1.54225173079388</v>
+        <v>1.508547323465221</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.539979059497867</v>
+        <v>1.519318729388877</v>
       </c>
       <c r="C25" t="n">
-        <v>1.419344763632595</v>
+        <v>1.429465446755522</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.418119553267301</v>
+        <v>1.46744182684421</v>
       </c>
       <c r="C26" t="n">
-        <v>1.518287455729258</v>
+        <v>1.508051780169324</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.492361254178598</v>
+        <v>1.428337886541736</v>
       </c>
       <c r="C27" t="n">
-        <v>1.480336235838772</v>
+        <v>1.415167130475387</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.430259720082868</v>
+        <v>1.594833852229082</v>
       </c>
       <c r="C28" t="n">
-        <v>1.462901050543318</v>
+        <v>1.488675633127218</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.486292619807323</v>
+        <v>1.500498760829493</v>
       </c>
       <c r="C29" t="n">
-        <v>1.436711550606703</v>
+        <v>1.497279559156717</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.42460294155472</v>
+        <v>1.503997022815206</v>
       </c>
       <c r="C30" t="n">
-        <v>1.405981211112359</v>
+        <v>1.564682932502281</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.478466540467994</v>
+        <v>1.518992643721552</v>
       </c>
       <c r="C31" t="n">
-        <v>1.514429774670999</v>
+        <v>1.470751098968144</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.507496176873776</v>
+        <v>1.52532207452553</v>
       </c>
       <c r="C32" t="n">
-        <v>1.465854251104739</v>
+        <v>1.519330282903523</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.604820255685241</v>
+        <v>1.525525106821366</v>
       </c>
       <c r="C33" t="n">
-        <v>1.449238790020349</v>
+        <v>1.405068383283116</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.474322065914161</v>
+        <v>1.417518018091766</v>
       </c>
       <c r="C34" t="n">
-        <v>1.520707663501966</v>
+        <v>1.57770046903169</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.525388916164878</v>
+        <v>1.491255738762856</v>
       </c>
       <c r="C35" t="n">
-        <v>1.514399123358261</v>
+        <v>1.433842932490673</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.511860142797257</v>
+        <v>1.572883842242122</v>
       </c>
       <c r="C36" t="n">
-        <v>1.563256427339918</v>
+        <v>1.48816930361466</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.42374911835127</v>
+        <v>1.565635193152725</v>
       </c>
       <c r="C37" t="n">
-        <v>1.445507731678265</v>
+        <v>1.47517672038267</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.446292032612982</v>
+        <v>1.507907069302797</v>
       </c>
       <c r="C38" t="n">
-        <v>1.51173138267458</v>
+        <v>1.537224635799745</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.388694317766889</v>
+        <v>1.425174993355397</v>
       </c>
       <c r="C39" t="n">
-        <v>1.402097144706096</v>
+        <v>1.404218119542346</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.523718901845345</v>
+        <v>1.529339107717906</v>
       </c>
       <c r="C40" t="n">
-        <v>1.493640798077841</v>
+        <v>1.445087954408777</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.505878331465473</v>
+        <v>1.510496233441675</v>
       </c>
       <c r="C41" t="n">
-        <v>1.471156292848334</v>
+        <v>1.54140150940277</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.414365832496511</v>
+        <v>1.513894100155205</v>
       </c>
       <c r="C42" t="n">
-        <v>1.390428593209643</v>
+        <v>1.521519575082276</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.450603334887417</v>
+        <v>1.479210887059988</v>
       </c>
       <c r="C43" t="n">
-        <v>1.512782183570529</v>
+        <v>1.466153434789482</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.450978428756138</v>
+        <v>1.479742524688484</v>
       </c>
       <c r="C44" t="n">
-        <v>1.443113605588909</v>
+        <v>1.53169202014879</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.43806492520876</v>
+        <v>1.509581984124972</v>
       </c>
       <c r="C45" t="n">
-        <v>1.433794585808383</v>
+        <v>1.424565213319457</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.462480052572688</v>
+        <v>1.400136764038497</v>
       </c>
       <c r="C46" t="n">
-        <v>1.468360136383289</v>
+        <v>1.493259120123109</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.552523417784624</v>
+        <v>1.591146086304057</v>
       </c>
       <c r="C47" t="n">
-        <v>1.545355731509677</v>
+        <v>1.53702667972495</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.467274336221054</v>
+        <v>1.564321662632231</v>
       </c>
       <c r="C48" t="n">
-        <v>1.466060376247242</v>
+        <v>1.480167017916829</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.439151341557186</v>
+        <v>1.491696327240793</v>
       </c>
       <c r="C49" t="n">
-        <v>1.49374645432619</v>
+        <v>1.54452015431279</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.533629422453964</v>
+        <v>1.515825216754723</v>
       </c>
       <c r="C50" t="n">
-        <v>1.462242735241717</v>
+        <v>1.541156216783582</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.405114469227484</v>
+        <v>1.539090662452308</v>
       </c>
       <c r="C51" t="n">
-        <v>1.500377057164676</v>
+        <v>1.510348391717039</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.489540034459943</v>
+        <v>1.464613211236727</v>
       </c>
       <c r="C52" t="n">
-        <v>1.645110370611451</v>
+        <v>1.512190490405559</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.458115346210451</v>
+        <v>1.4885493719218</v>
       </c>
       <c r="C53" t="n">
-        <v>1.566405905588499</v>
+        <v>1.464375911958125</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.565283594306261</v>
+        <v>1.480830188409291</v>
       </c>
       <c r="C54" t="n">
-        <v>1.501076984650493</v>
+        <v>1.487655661194561</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.469012630572464</v>
+        <v>1.574815506065985</v>
       </c>
       <c r="C55" t="n">
-        <v>1.451400719716394</v>
+        <v>1.517188089933756</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.432453832857541</v>
+        <v>1.503104700213293</v>
       </c>
       <c r="C56" t="n">
-        <v>1.48608294886169</v>
+        <v>1.480851509416758</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.376151199404174</v>
+        <v>1.554603813282561</v>
       </c>
       <c r="C57" t="n">
-        <v>1.435257604227577</v>
+        <v>1.441258810577162</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.492146823092874</v>
+        <v>1.413705387371076</v>
       </c>
       <c r="C58" t="n">
-        <v>1.542156436939342</v>
+        <v>1.37676800545808</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.509454843404527</v>
+        <v>1.464190428696558</v>
       </c>
       <c r="C59" t="n">
-        <v>1.532021345400681</v>
+        <v>1.526119191358783</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.483412527720413</v>
+        <v>1.571366244121738</v>
       </c>
       <c r="C60" t="n">
-        <v>1.461909187157537</v>
+        <v>1.530742884304227</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.564479406677832</v>
+        <v>1.48861140969188</v>
       </c>
       <c r="C61" t="n">
-        <v>1.37085519582403</v>
+        <v>1.421705030815883</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.471651330631935</v>
+        <v>1.507342344947508</v>
       </c>
       <c r="C62" t="n">
-        <v>1.4261005878457</v>
+        <v>1.531955609913292</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.508521800114266</v>
+        <v>1.526748596222552</v>
       </c>
       <c r="C63" t="n">
-        <v>1.437287635661638</v>
+        <v>1.42573849654307</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.573015235615531</v>
+        <v>1.51242582439304</v>
       </c>
       <c r="C64" t="n">
-        <v>1.498596300174084</v>
+        <v>1.550183094070871</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.545449803575831</v>
+        <v>1.493301049919764</v>
       </c>
       <c r="C65" t="n">
-        <v>1.530520962014588</v>
+        <v>1.414960047523844</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.599691409920418</v>
+        <v>1.430216848282397</v>
       </c>
       <c r="C66" t="n">
-        <v>1.460334757869854</v>
+        <v>1.504185659866607</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.506809280886898</v>
+        <v>1.525923567882021</v>
       </c>
       <c r="C67" t="n">
-        <v>1.455708352744984</v>
+        <v>1.427378749951871</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.448200709897375</v>
+        <v>1.47646491770047</v>
       </c>
       <c r="C68" t="n">
-        <v>1.508013368526702</v>
+        <v>1.505025589138307</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.460243080258407</v>
+        <v>1.447455124741344</v>
       </c>
       <c r="C69" t="n">
-        <v>1.445301722053908</v>
+        <v>1.361025135673882</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.552518523116656</v>
+        <v>1.471511479439848</v>
       </c>
       <c r="C70" t="n">
-        <v>1.496975901980546</v>
+        <v>1.473312622504085</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.395849843349261</v>
+        <v>1.495656061119037</v>
       </c>
       <c r="C71" t="n">
-        <v>1.537255202905784</v>
+        <v>1.393451652733313</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.455894717770165</v>
+        <v>1.50653160850343</v>
       </c>
       <c r="C72" t="n">
-        <v>1.446927822792563</v>
+        <v>1.422515714557999</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.515258003854021</v>
+        <v>1.460729209387844</v>
       </c>
       <c r="C73" t="n">
-        <v>1.494845420624413</v>
+        <v>1.442377933498739</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.509476299486503</v>
+        <v>1.498480041597835</v>
       </c>
       <c r="C74" t="n">
-        <v>1.473233866158445</v>
+        <v>1.446888719198267</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.508613748562196</v>
+        <v>1.544573599813322</v>
       </c>
       <c r="C75" t="n">
-        <v>1.423964307485869</v>
+        <v>1.440663120927728</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.569535072570401</v>
+        <v>1.488748969698748</v>
       </c>
       <c r="C76" t="n">
-        <v>1.597335194672399</v>
+        <v>1.472642266000959</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.430094570937201</v>
+        <v>1.435489264388499</v>
       </c>
       <c r="C77" t="n">
-        <v>1.466336603127185</v>
+        <v>1.549427155167734</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.475440685346274</v>
+        <v>1.561350055709069</v>
       </c>
       <c r="C78" t="n">
-        <v>1.54245707315386</v>
+        <v>1.450589533470804</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.547104601619697</v>
+        <v>1.571110705643995</v>
       </c>
       <c r="C79" t="n">
-        <v>1.504671171955101</v>
+        <v>1.496123500096987</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.527132059156823</v>
+        <v>1.457810682198851</v>
       </c>
       <c r="C80" t="n">
-        <v>1.482207951211793</v>
+        <v>1.501154122688166</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.522657932773142</v>
+        <v>1.495391118939184</v>
       </c>
       <c r="C81" t="n">
-        <v>1.438959058749101</v>
+        <v>1.487716419188716</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.514358390448465</v>
+        <v>1.423051290120885</v>
       </c>
       <c r="C82" t="n">
-        <v>1.503814145731325</v>
+        <v>1.484876642521196</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.511184786576202</v>
+        <v>1.420003664270583</v>
       </c>
       <c r="C83" t="n">
-        <v>1.475212624174512</v>
+        <v>1.477331919814991</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.549415728280586</v>
+        <v>1.469979870064046</v>
       </c>
       <c r="C84" t="n">
-        <v>1.449764418342387</v>
+        <v>1.481253697883447</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.502834950235514</v>
+        <v>1.520234459757369</v>
       </c>
       <c r="C85" t="n">
-        <v>1.379864410116228</v>
+        <v>1.583333643812091</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.423679607594336</v>
+        <v>1.61920737126418</v>
       </c>
       <c r="C86" t="n">
-        <v>1.429241837964934</v>
+        <v>1.470192607951462</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.466508958143115</v>
+        <v>1.501290887916983</v>
       </c>
       <c r="C87" t="n">
-        <v>1.426489208534592</v>
+        <v>1.481580508820687</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.486286243352557</v>
+        <v>1.532836725509397</v>
       </c>
       <c r="C88" t="n">
-        <v>1.596997508694544</v>
+        <v>1.446075856857505</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.482041572703715</v>
+        <v>1.437408100203898</v>
       </c>
       <c r="C89" t="n">
-        <v>1.498416077450178</v>
+        <v>1.527245111947109</v>
       </c>
     </row>
   </sheetData>
